--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_35.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_35.xlsx
@@ -1184,10 +1184,10 @@
         <v>1361974149.3</v>
       </c>
       <c r="F12" s="1">
-        <v>1305498329</v>
+        <v>1305498328.7699957</v>
       </c>
       <c r="G12" s="1">
-        <v>1240524717.0500007</v>
+        <v>1240524717</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="1">
@@ -1220,10 +1220,10 @@
         <v>332114255.61000007</v>
       </c>
       <c r="F13" s="1">
-        <v>325268233.60000002</v>
+        <v>325268233.58999997</v>
       </c>
       <c r="G13" s="1">
-        <v>319819483.18000001</v>
+        <v>319819483.19999999</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1">
@@ -1259,7 +1259,7 @@
         <v>44875817.619999997</v>
       </c>
       <c r="G14" s="1">
-        <v>34063116.800000042</v>
+        <v>3406311.8</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="1">
@@ -1328,10 +1328,10 @@
         <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
-        <v>-56316441.740000002</v>
+        <v>-53616441.74000001</v>
       </c>
       <c r="G16" s="1">
-        <v>-60834434.380000003</v>
+        <v>60834434.380000003</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="1">
@@ -1403,11 +1403,12 @@
         <v>1447134855.7700002</v>
       </c>
       <c r="F18" s="1">
-        <v>1451068426</v>
+        <f>SUM(F12:F17)</f>
+        <v>1451068426.2899954</v>
       </c>
       <c r="G18" s="1">
         <f>SUM(G12:G17)</f>
-        <v>1370267325.9700005</v>
+        <v>1461279389.7</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="1">
@@ -1445,7 +1446,7 @@
         <v>-412700000</v>
       </c>
       <c r="G19" s="1">
-        <v>-379300000.00000012</v>
+        <v>379300000</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="1">
@@ -1517,11 +1518,12 @@
         <v>1062434855.7700001</v>
       </c>
       <c r="F21" s="33">
-        <v>1038368426</v>
+        <f>SUM(F18:F20)</f>
+        <v>1038368426.2899954</v>
       </c>
       <c r="G21" s="33">
         <f>SUM(G18:G20)</f>
-        <v>990967325.97000039</v>
+        <v>1840579389.7</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="33">
@@ -1559,7 +1561,7 @@
         <v>-20015625</v>
       </c>
       <c r="G22" s="32">
-        <v>-20015625</v>
+        <v>20015625</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="32">
@@ -1596,11 +1598,11 @@
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
-        <v>1018352801</v>
+        <v>1018352801.2899954</v>
       </c>
       <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
-        <v>970951700.97000039</v>
+        <v>1860595014.7</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="33">
@@ -1644,11 +1646,11 @@
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
-        <v>0.99186653754856602</v>
+        <v>0.9918665374628679</v>
       </c>
       <c r="G25" s="5">
         <f>G23/G26</f>
-        <v>0.94342760154224004</v>
+        <v>1.8078517094147997</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
@@ -1681,10 +1683,10 @@
         <v>1018613403.9980445</v>
       </c>
       <c r="F26" s="1">
-        <v>1026703455</v>
+        <v>1026703455.3810816</v>
       </c>
       <c r="G26" s="1">
-        <v>1029174575.116062</v>
+        <v>1029174575</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="1">
@@ -1735,11 +1737,11 @@
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>-3.0784812576986641E-2</v>
+        <v>-3.0784812660727658E-2</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
-        <v>-4.8836142941211184E-2</v>
+        <v>0.82267637946448968</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0199816896833298</v>
+        <v>1.1928665112407022</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
